--- a/pred_ohlcv/54_21/2019-10-19 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-5262.751247073258</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-5341.864247073258</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-4966.764247073258</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-4977.550647073258</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-4879.520647073258</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-4923.920647073258</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-4732.926747073258</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-4732.926747073258</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3926.404447073257</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4064.683947073258</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4421.782647073258</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-4555.353247073258</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4518.474847073258</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4879.925847073258</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4847.785147073258</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4744.040747073259</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4647.882247073259</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-4516.15584707326</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-4837.44994707326</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-4837.44994707326</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5172.04584707326</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-5174.47024707326</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-5174.47024707326</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-5104.47024707326</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-5104.47024707326</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-5104.47024707326</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-5104.47024707326</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-5139.47024707326</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3508.24024707326</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3659.24024707326</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-41643.20234707327</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-41447.24394707326</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-41141.94904707326</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-40937.36694707326</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-41428.70634707326</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-42522.44524707326</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-46369.90094707326</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-46369.90094707326</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-46369.90094707326</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-46369.56794707326</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-47148.07474707327</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-47131.78824707327</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-47131.78824707327</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-47753.22544707327</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-48730.89634707326</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-48965.91954707327</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-72583.8943069392</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-72583.79430693919</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-72584.76770693919</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-72451.8131069392</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-72450.1156069392</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-72970.77870693921</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-73462.3292069392</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-72951.0939069392</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-72975.0939069392</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-72354.3675069392</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-72354.77570693921</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-71849.77570693921</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-73657.72590693925</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-73769.43160693925</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-71703.1538899493</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-71962.44508994931</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-72019.4449899493</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-72019.4449899493</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-72278.0879899493</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-72278.0879899493</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-72278.0879899493</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-72487.8879899493</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-72840.02438994931</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-72840.02438994931</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-72633.39818994931</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-72632.63188994931</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-72993.6669899493</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-72993.6669899493</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-74220.8587899493</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-74136.3986899493</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-78824.93730070199</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-79028.046200702</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-79028.046200702</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-79028.046200702</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-76303.23520070199</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-76673.39940070199</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-76556.42170070199</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-68546.30740070199</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-69833.91820070198</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-68562.67880070198</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-66885.67880070198</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-66885.67880070198</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-67259.87400070198</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-67629.73150070198</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-68126.45390070198</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-65626.45390070198</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-65633.55032927341</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-65865.3118292734</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-66055.5890292734</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-66270.6639292734</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-114385.1841163331</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-107730.1735163331</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-113137.3176163331</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-113125.9496163331</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-113613.6408163331</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-113237.6702163331</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-113237.6702163331</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-113321.3377163331</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-113322.3377163331</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-113280.5377163331</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-113280.5377163331</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-113290.5308163331</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-113532.3608163331</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-113516.4608163331</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-113499.5608163331</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-113481.5608163331</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-113481.5608163331</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-113255.5771163331</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-108820.9574163331</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-108955.6937163331</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-108929.9412163331</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-109255.8527163331</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-109393.8364163331</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-109393.9364163331</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-108455.6023163331</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-108436.3023163331</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-108435.9096163331</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-109253.1490163332</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-108756.9394163332</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-110338.5315163332</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-109389.9040163332</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-108156.7095163332</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-109645.8430163332</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-109630.1539163332</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-110314.9930163332</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-110314.9930163332</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-108759.1868163332</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 LINK ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-4977.550647073258</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-4879.520647073258</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-4923.920647073258</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-4732.926747073258</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-4732.926747073258</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3926.404447073257</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4064.683947073258</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4421.782647073258</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-4555.353247073258</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4518.474847073258</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4879.925847073258</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4847.785147073258</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4744.040747073259</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4647.882247073259</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-4516.15584707326</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-4837.44994707326</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-4837.44994707326</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5172.04584707326</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-5174.47024707326</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-5174.47024707326</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-5074.47024707326</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-41643.20234707327</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-41447.24394707326</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-41141.94904707326</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-40937.36694707326</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-41428.70634707326</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-42522.44524707326</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-46369.90094707326</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-46369.90094707326</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-46369.90094707326</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-46369.56794707326</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-47148.07474707327</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-47131.78824707327</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-47131.78824707327</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-47753.22544707327</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-48730.89634707326</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-48965.91954707327</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-72951.0939069392</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-73657.72590693925</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-73769.43160693925</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-71703.1538899493</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-71962.44508994931</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-72019.4449899493</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-72019.4449899493</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-72278.0879899493</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-72278.0879899493</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-72278.0879899493</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-72487.8879899493</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-72840.02438994931</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-72840.02438994931</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-72633.39818994931</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-72632.63188994931</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-72993.6669899493</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-72993.6669899493</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-74220.8587899493</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-74136.3986899493</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-78824.93730070199</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-79028.046200702</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-79028.046200702</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-79028.046200702</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-76303.23520070199</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-76673.39940070199</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-76556.42170070199</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-68546.30740070199</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-69833.91820070198</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-68562.67880070198</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-66885.67880070198</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-66885.67880070198</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-67259.87400070198</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-67629.73150070198</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-68126.45390070198</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-65626.45390070198</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-65633.55032927341</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-65865.3118292734</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-66055.5890292734</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-66270.6639292734</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-114385.1841163331</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-107730.1735163331</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-113137.3176163331</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-113125.9496163331</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-113613.6408163331</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-113237.6702163331</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-113237.6702163331</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-113321.3377163331</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-113322.3377163331</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-113280.5377163331</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-113280.5377163331</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-113290.5308163331</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-113532.3608163331</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-113516.4608163331</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-113499.5608163331</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-113481.5608163331</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-113481.5608163331</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-113255.5771163331</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-108820.9574163331</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-108955.6937163331</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-108929.9412163331</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-109255.8527163331</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-109393.8364163331</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-109393.9364163331</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-108455.6023163331</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-108436.3023163331</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-108435.9096163331</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-102016.0814163332</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-104537.1500163332</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-104517.1500163332</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-104589.1500163332</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-108253.4676163332</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-109568.7490163332</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-109253.1490163332</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-108756.9394163332</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-110338.5315163332</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-109389.9040163332</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-108156.7095163332</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-108377.3445163332</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-109451.1361163332</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-109645.8430163332</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-109630.1539163332</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-110314.9930163332</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-110314.9930163332</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-109111.7615163332</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-109111.7615163332</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-109111.7615163332</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-109111.7615163332</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-109111.7615163332</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-109311.6878163332</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-108759.1868163332</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-105687.0039163332</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-105657.0039163332</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-105647.6319163332</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-106452.4676163331</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-106205.4648163331</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-106135.9231163331</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
